--- a/documents/Published/HistogramXY/HistogramXYByMAQSoftwareChecklist.xlsx
+++ b/documents/Published/HistogramXY/HistogramXYByMAQSoftwareChecklist.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VisualWork\documents\Published\HistogramXY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitLab_PowerBIVisuals\documents\Published\HistogramXY\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16AF67DC-A3A9-4ECB-B788-C3AD0CC962C5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13290" xr2:uid="{460CE8C8-20E9-4BFC-A027-E9F688B2787C}"/>
   </bookViews>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="65">
   <si>
     <t>S no</t>
   </si>
@@ -301,6 +302,22 @@
   </si>
   <si>
     <t>Histogram Chart will be displayed with specified start and end values.</t>
+  </si>
+  <si>
+    <t>Grid Line</t>
+  </si>
+  <si>
+    <t>Update grid lines</t>
+  </si>
+  <si>
+    <t>1. Go to formatting pane
+2. Switch toggle of 'Grid Lines' to 'OFF'
+3. Switch toggle of 'Grid Lines' to 'ON'
+4. In Grid Lines field,  Switch toggle of 'X Axis' to 'OFF'
+5. In Grid Lines field,  Switch toggle of 'Y Axis' to 'OFF'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grid Lines will appear/disappear as per the toggle </t>
   </si>
 </sst>
 </file>
@@ -782,9 +799,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6912D463-5787-4386-AC5E-483DCEEE662E}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -930,6 +947,23 @@
       </c>
       <c r="E8" s="2" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
